--- a/Metabolism.xlsx
+++ b/Metabolism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guozhenning/Desktop/VSCodeProjects/BioChemComprehensiveHW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26CDD06-9F23-D049-81E5-41EFEE0CB2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71C268BF-0CB9-A84B-9EDC-D9141782D62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="760" windowWidth="19420" windowHeight="17260" activeTab="3" xr2:uid="{BE01D711-1010-4EA0-A063-87746B47415A}"/>
+    <workbookView xWindow="7320" yWindow="740" windowWidth="19420" windowHeight="17260" xr2:uid="{BE01D711-1010-4EA0-A063-87746B47415A}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbonhydrates" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="901">
   <si>
     <t>Pathway</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2665,10 +2665,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>un</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>lactonase</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2781,10 +2777,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CO2:1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3-phosphoglycerate:2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2853,18 +2845,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>linght</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>regeneration of RuBP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>phosphoribulokinase</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>glucose-alanine cycle</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3294,6 +3278,143 @@
   </si>
   <si>
     <t>specific enzyme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starch synthesis</t>
+  </si>
+  <si>
+    <t>Synthesis of the activated glucose precursor ADP-glucose from glucose 1-phosphate.</t>
+  </si>
+  <si>
+    <t>glucose 1-phosphate:1</t>
+  </si>
+  <si>
+    <t>ADP-glucose:1</t>
+  </si>
+  <si>
+    <t>PPi:1</t>
+  </si>
+  <si>
+    <t>ADP-glucose pyrophosphorylase</t>
+  </si>
+  <si>
+    <t>plants</t>
+  </si>
+  <si>
+    <t>chloroplast stroma</t>
+  </si>
+  <si>
+    <t>Ch20.pptx</t>
+  </si>
+  <si>
+    <t>Elongation of the starch chain by transferring the glucose residue from ADP-glucose to the nonreducing end.</t>
+  </si>
+  <si>
+    <t>ADP-glucose:1;starch(n):1</t>
+  </si>
+  <si>
+    <t>starch(n+1):1</t>
+  </si>
+  <si>
+    <t>starch synthase</t>
+  </si>
+  <si>
+    <t>sucrose synthesis</t>
+  </si>
+  <si>
+    <t>Condensation of UDP-glucose and fructose 6-phosphate to form sucrose 6-phosphate.</t>
+  </si>
+  <si>
+    <t>UDP-glucose:1;fructose 6-phosphate:1</t>
+  </si>
+  <si>
+    <t>sucrose 6-phosphate:1</t>
+  </si>
+  <si>
+    <t>UDP:1</t>
+  </si>
+  <si>
+    <t>sucrose 6-phosphate synthase</t>
+  </si>
+  <si>
+    <t>Removal of the phosphate group from sucrose 6-phosphate to yield sucrose.</t>
+  </si>
+  <si>
+    <t>sucrose:1</t>
+  </si>
+  <si>
+    <t>sucrose 6-phosphate phosphatase</t>
+  </si>
+  <si>
+    <t>C4 pathway</t>
+  </si>
+  <si>
+    <t>Fixation of HCO3- to PEP to form oxaloacetate in mesophyll cells.</t>
+  </si>
+  <si>
+    <t>phosphoenolpyruvate:1</t>
+  </si>
+  <si>
+    <t>HCO3-:1</t>
+  </si>
+  <si>
+    <t>PEP carboxylase</t>
+  </si>
+  <si>
+    <t>cytosol (mesophyll)</t>
+  </si>
+  <si>
+    <t>Reduction of oxaloacetate to malate.</t>
+  </si>
+  <si>
+    <t>malate dehydrogenase</t>
+  </si>
+  <si>
+    <t>chloroplast stroma (mesophyll)</t>
+  </si>
+  <si>
+    <t>Decarboxylation of malate to pyruvate in bundle-sheath cells.</t>
+  </si>
+  <si>
+    <t>pyruvate:1;CO2:1</t>
+  </si>
+  <si>
+    <t>malic enzyme</t>
+  </si>
+  <si>
+    <t>chloroplast stroma (bundle-sheath)</t>
+  </si>
+  <si>
+    <t>Regeneration of PEP from pyruvate in mesophyll cells.</t>
+  </si>
+  <si>
+    <t>ATP:1;Pi:1</t>
+  </si>
+  <si>
+    <t>AMP:1;PPi:1</t>
+  </si>
+  <si>
+    <t>pyruvate phosphate dikinase</t>
+  </si>
+  <si>
+    <t>chloroplast stroma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ribulose 1,5-bisphosphate:1;CO2:1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>convert glyceraldehyde 3-phosphate to ribulose 5-phosphate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>multi-enzymes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3301,7 +3422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3343,6 +3464,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3366,7 +3492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3380,6 +3506,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3696,29 +3825,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7860E3-A355-D34C-A5F3-A08B9519F67D}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="F39" zoomScale="108" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" customWidth="1"/>
-    <col min="2" max="2" width="150.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="58.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" customWidth="1"/>
-    <col min="8" max="8" width="55" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="34.5" customWidth="1"/>
-    <col min="12" max="12" width="51.5" customWidth="1"/>
-    <col min="13" max="13" width="26.5" customWidth="1"/>
-    <col min="14" max="14" width="23" customWidth="1"/>
-    <col min="15" max="15" width="74.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="150.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="58.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="55" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="34.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="51.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="26.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="36.1640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="74.1640625" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16">
@@ -4713,25 +4843,25 @@
         <v>581</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>796</v>
-      </c>
       <c r="F22" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
@@ -5078,7 +5208,7 @@
         <v>640</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>658</v>
@@ -5573,11 +5703,11 @@
       <c r="F40" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -5606,7 +5736,7 @@
         <v>687</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
@@ -5618,10 +5748,10 @@
         <v>690</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>671</v>
@@ -5653,25 +5783,25 @@
         <v>687</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="I42" s="2">
         <v>0</v>
@@ -5697,10 +5827,10 @@
     </row>
     <row r="43" spans="1:15" ht="16">
       <c r="A43" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
@@ -5708,14 +5838,14 @@
       <c r="D43" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>699</v>
+      <c r="E43" s="2">
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>699</v>
+        <v>707</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>672</v>
@@ -5744,25 +5874,25 @@
     </row>
     <row r="44" spans="1:15" ht="16">
       <c r="A44" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="C44" s="2">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>673</v>
@@ -5791,25 +5921,25 @@
     </row>
     <row r="45" spans="1:15" ht="16">
       <c r="A45" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="C45" s="2">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>674</v>
@@ -5833,33 +5963,33 @@
         <v>685</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="16">
       <c r="A46" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>675</v>
@@ -5868,10 +5998,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>684</v>
@@ -5880,33 +6010,33 @@
         <v>685</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="16">
       <c r="A47" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>699</v>
+        <v>707</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>699</v>
+      <c r="G47" s="2">
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I47" s="2">
         <v>0</v>
@@ -5932,75 +6062,73 @@
     </row>
     <row r="48" spans="1:15" ht="16">
       <c r="A48" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="C48" s="2">
         <v>0</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="H48" s="2" t="s">
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="N48" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="16">
+      <c r="A49" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="16">
-      <c r="A49" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>739</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
@@ -6015,39 +6143,39 @@
         <v>0</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O49" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="16">
+    <row r="50" spans="1:17" ht="16">
       <c r="A50" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C50" s="2">
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>692</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="I50" s="2">
         <v>0</v>
@@ -6056,45 +6184,45 @@
         <v>1</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>746</v>
+        <v>899</v>
       </c>
       <c r="L50" s="2">
         <v>0</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="O50" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="16">
+    <row r="51" spans="1:17" ht="16">
       <c r="A51" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>702</v>
+        <v>741</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="H51" s="2" t="s">
-        <v>748</v>
+        <v>900</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>604</v>
@@ -6103,27 +6231,27 @@
         <v>0</v>
       </c>
       <c r="K51" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="16">
+      <c r="A52" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="16">
-      <c r="A52" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="C52" s="2">
         <v>0</v>
@@ -6132,16 +6260,16 @@
         <v>678</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>675</v>
@@ -6165,30 +6293,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="16">
+    <row r="53" spans="1:17" ht="16">
       <c r="A53" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>678</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>675</v>
@@ -6212,12 +6340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="16">
+    <row r="54" spans="1:17" ht="16">
       <c r="A54" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -6250,21 +6378,21 @@
         <v>596</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="16">
+    <row r="55" spans="1:17" ht="16">
       <c r="A55" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C55" s="2">
         <v>0</v>
@@ -6297,21 +6425,21 @@
         <v>0</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O55" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="16">
+    <row r="56" spans="1:17" ht="16">
       <c r="A56" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -6323,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="G56" s="2">
         <v>0</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="I56" s="2">
         <v>0</v>
@@ -6344,39 +6472,39 @@
         <v>0</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="N56" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="16">
+      <c r="A57" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="16">
-      <c r="A57" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>797</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="I57" s="2">
         <v>0</v>
@@ -6391,18 +6519,18 @@
         <v>0</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O57" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="16">
+    <row r="58" spans="1:17" ht="16">
       <c r="A58" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>624</v>
@@ -6438,39 +6566,39 @@
         <v>0</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O58" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="16">
+    <row r="59" spans="1:17" ht="16">
       <c r="A59" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>796</v>
-      </c>
       <c r="F59" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
@@ -6485,13 +6613,683 @@
         <v>0</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>590</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="16">
+      <c r="A60" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A61" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A62" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A63" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A64" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A65" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A66" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A67" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="5" customFormat="1" ht="16">
+      <c r="A68" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="16">
+      <c r="A69" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="16">
+      <c r="A70" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="16">
+      <c r="A71" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="16">
+      <c r="A72" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="O72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6504,8 +7302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1496BC-7380-0147-9321-E35B3610DEE7}">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="59" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B95" sqref="A95:XFD95"/>
+    <sheetView zoomScale="94" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6678,14 +7476,14 @@
       <c r="D4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>162</v>
+      <c r="E4" s="2">
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>162</v>
+      <c r="G4" s="2">
+        <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>172</v>
@@ -6919,8 +7717,8 @@
       <c r="F9" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>162</v>
+      <c r="G9" s="2">
+        <v>0</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>198</v>
@@ -7107,8 +7905,8 @@
       <c r="F13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>162</v>
+      <c r="G13" s="2">
+        <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>198</v>
@@ -7295,8 +8093,8 @@
       <c r="F17" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>162</v>
+      <c r="G17" s="2">
+        <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>198</v>
@@ -7483,8 +8281,8 @@
       <c r="F21" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>162</v>
+      <c r="G21" s="2">
+        <v>0</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>198</v>
@@ -7671,8 +8469,8 @@
       <c r="F25" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>162</v>
+      <c r="G25" s="2">
+        <v>0</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>198</v>
@@ -7859,8 +8657,8 @@
       <c r="F29" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>162</v>
+      <c r="G29" s="2">
+        <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>198</v>
@@ -8047,8 +8845,8 @@
       <c r="F33" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>162</v>
+      <c r="G33" s="2">
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>257</v>
@@ -8141,8 +8939,8 @@
       <c r="F35" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>162</v>
+      <c r="G35" s="2">
+        <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>265</v>
@@ -8229,14 +9027,14 @@
       <c r="D37" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>162</v>
+      <c r="E37" s="2">
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>162</v>
+      <c r="G37" s="2">
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>274</v>
@@ -8310,7 +9108,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="15" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>173</v>
       </c>
@@ -8370,14 +9168,14 @@
       <c r="D40" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>162</v>
+      <c r="E40" s="2">
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>162</v>
+      <c r="G40" s="2">
+        <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>284</v>
@@ -8511,14 +9309,14 @@
       <c r="D43" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>162</v>
+      <c r="E43" s="2">
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>162</v>
+      <c r="G43" s="2">
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>297</v>
@@ -8652,14 +9450,14 @@
       <c r="D46" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>162</v>
+      <c r="E46" s="2">
+        <v>0</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>162</v>
+      <c r="G46" s="2">
+        <v>0</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>312</v>
@@ -8699,14 +9497,14 @@
       <c r="D47" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>162</v>
+      <c r="E47" s="2">
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>162</v>
+      <c r="G47" s="2">
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>315</v>
@@ -8840,8 +9638,8 @@
       <c r="D50" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>162</v>
+      <c r="E50" s="2">
+        <v>0</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>324</v>
@@ -8934,8 +9732,8 @@
       <c r="D52" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>162</v>
+      <c r="E52" s="2">
+        <v>0</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>333</v>
@@ -8981,8 +9779,8 @@
       <c r="D53" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>162</v>
+      <c r="E53" s="2">
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>337</v>
@@ -9175,8 +9973,8 @@
       <c r="F57" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>162</v>
+      <c r="G57" s="2">
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>325</v>
@@ -9261,7 +10059,10 @@
         <v>0</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>858</v>
+        <v>854</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>359</v>
@@ -9354,8 +10155,8 @@
       <c r="D61" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>162</v>
+      <c r="E61" s="2">
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>366</v>
@@ -9446,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>353</v>
@@ -9542,8 +10343,8 @@
       <c r="D65" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>162</v>
+      <c r="E65" s="2">
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>378</v>
@@ -9730,8 +10531,8 @@
       <c r="D69" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>162</v>
+      <c r="E69" s="2">
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>388</v>
@@ -9918,8 +10719,8 @@
       <c r="D73" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>162</v>
+      <c r="E73" s="2">
+        <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>398</v>
@@ -10106,8 +10907,8 @@
       <c r="D77" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>162</v>
+      <c r="E77" s="2">
+        <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>408</v>
@@ -10294,8 +11095,8 @@
       <c r="D81" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>162</v>
+      <c r="E81" s="2">
+        <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>424</v>
@@ -10482,8 +11283,8 @@
       <c r="D85" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>162</v>
+      <c r="E85" s="2">
+        <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>436</v>
@@ -10586,7 +11387,7 @@
         <v>441</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I87" s="2">
         <v>0</v>
@@ -10905,17 +11706,17 @@
       <c r="D94" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>162</v>
+      <c r="E94" s="2">
+        <v>0</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>162</v>
+      <c r="G94" s="2">
+        <v>0</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I94" s="2">
         <v>0</v>
@@ -10952,17 +11753,17 @@
       <c r="D95" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>162</v>
+      <c r="E95" s="2">
+        <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>162</v>
+      <c r="G95" s="2">
+        <v>0</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I95" s="2">
         <v>0</v>
@@ -10999,17 +11800,17 @@
       <c r="D96" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>162</v>
+      <c r="E96" s="2">
+        <v>0</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>162</v>
+      <c r="G96" s="2">
+        <v>0</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I96" s="2">
         <v>0</v>
@@ -11046,17 +11847,17 @@
       <c r="D97" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>162</v>
+      <c r="E97" s="2">
+        <v>0</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>162</v>
+      <c r="G97" s="2">
+        <v>0</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I97" s="2">
         <v>0</v>
@@ -11093,17 +11894,17 @@
       <c r="D98" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>162</v>
+      <c r="E98" s="2">
+        <v>0</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>162</v>
+      <c r="G98" s="2">
+        <v>0</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I98" s="2">
         <v>0</v>
@@ -11140,17 +11941,17 @@
       <c r="D99" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>162</v>
+      <c r="E99" s="2">
+        <v>0</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>162</v>
+      <c r="G99" s="2">
+        <v>0</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I99" s="2">
         <v>0</v>
@@ -11187,17 +11988,17 @@
       <c r="D100" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>162</v>
+      <c r="E100" s="2">
+        <v>0</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>162</v>
+      <c r="G100" s="2">
+        <v>0</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I100" s="2">
         <v>0</v>
@@ -11234,17 +12035,17 @@
       <c r="D101" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>162</v>
+      <c r="E101" s="2">
+        <v>0</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>162</v>
+      <c r="G101" s="2">
+        <v>0</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I101" s="2">
         <v>0</v>
@@ -11281,17 +12082,17 @@
       <c r="D102" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>162</v>
+      <c r="E102" s="2">
+        <v>0</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>162</v>
+      <c r="G102" s="2">
+        <v>0</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I102" s="2">
         <v>0</v>
@@ -11475,11 +12276,11 @@
       <c r="F106" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>162</v>
+      <c r="G106" s="2">
+        <v>0</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I106" s="2">
         <v>0</v>
@@ -11610,8 +12411,8 @@
       <c r="D109" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>162</v>
+      <c r="E109" s="2">
+        <v>0</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>324</v>
@@ -11757,11 +12558,11 @@
       <c r="F112" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>162</v>
+      <c r="G112" s="2">
+        <v>0</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I112" s="2">
         <v>0</v>
@@ -11845,17 +12646,17 @@
       <c r="D114" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>162</v>
+      <c r="E114" s="2">
+        <v>0</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G114" s="2" t="s">
-        <v>162</v>
+      <c r="G114" s="2">
+        <v>0</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I114" s="2">
         <v>0</v>
@@ -11986,17 +12787,17 @@
       <c r="D117" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>162</v>
+      <c r="E117" s="2">
+        <v>0</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>162</v>
+      <c r="G117" s="2">
+        <v>0</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I117" s="2">
         <v>0</v>
@@ -12033,17 +12834,17 @@
       <c r="D118" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>162</v>
+      <c r="E118" s="2">
+        <v>0</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>162</v>
+      <c r="G118" s="2">
+        <v>0</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I118" s="2">
         <v>0</v>
@@ -12077,7 +12878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DE7147-8029-FC41-88E0-72EB56229F62}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -12100,49 +12901,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16">
       <c r="A1" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="16">
@@ -12297,13 +13098,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -12344,13 +13145,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -12391,13 +13192,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -12438,13 +13239,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -12485,13 +13286,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -12532,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -12585,7 +13386,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -12626,13 +13427,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -12673,13 +13474,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -12767,13 +13568,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -12813,8 +13614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C97F62D-42FB-F048-ACE4-D32C3522FC23}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H40" sqref="H38:H40"/>
+    <sheetView topLeftCell="G1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12836,49 +13637,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>767</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>769</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -12989,10 +13790,10 @@
         <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>60</v>
@@ -13042,7 +13843,7 @@
         <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>62</v>
@@ -13083,13 +13884,13 @@
         <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>64</v>
@@ -13127,16 +13928,16 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>65</v>
@@ -13221,7 +14022,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>859</v>
+        <v>855</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>81</v>
@@ -13453,16 +14257,16 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>118</v>
@@ -13500,13 +14304,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -13547,13 +14351,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -13594,13 +14398,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -13641,13 +14445,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -13688,13 +14492,13 @@
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
@@ -13735,13 +14539,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -13782,16 +14586,16 @@
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>127</v>
@@ -13829,13 +14633,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>82</v>
@@ -13876,16 +14680,16 @@
         <v>0</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>130</v>
@@ -13923,16 +14727,16 @@
         <v>0</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>813</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>131</v>
@@ -13973,10 +14777,10 @@
         <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>82</v>
@@ -14017,16 +14821,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>132</v>
@@ -14064,16 +14868,16 @@
         <v>0</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>130</v>
@@ -14111,16 +14915,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>133</v>
@@ -14158,16 +14962,16 @@
         <v>0</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>133</v>
@@ -14205,13 +15009,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>91</v>
@@ -14252,13 +15056,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G31" s="2">
         <v>0</v>
@@ -14299,16 +15103,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>143</v>
@@ -14346,10 +15150,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>112</v>
@@ -14393,16 +15197,16 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>148</v>
@@ -14440,13 +15244,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -14487,16 +15291,16 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>150</v>
@@ -14534,16 +15338,16 @@
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>151</v>
@@ -14581,19 +15385,19 @@
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="G38" s="2">
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -14628,19 +15432,19 @@
         <v>0</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
@@ -14675,19 +15479,19 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -14722,19 +15526,19 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>829</v>
-      </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
@@ -14795,7 +15599,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>

--- a/Metabolism.xlsx
+++ b/Metabolism.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guozhenning/Desktop/VSCodeProjects/BioChemComprehensiveHW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AA9011-C32A-F447-8EF2-EB48AEC3AECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0AEB121-CB0F-0046-B2D4-CB316B581BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="740" windowWidth="19420" windowHeight="17260" xr2:uid="{BE01D711-1010-4EA0-A063-87746B47415A}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" firstSheet="1" activeTab="7" xr2:uid="{BE01D711-1010-4EA0-A063-87746B47415A}"/>
   </bookViews>
   <sheets>
     <sheet name="Carbonhydrates" sheetId="12" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Nucleotides" sheetId="15" r:id="rId4"/>
     <sheet name="special abbreviation" sheetId="3" r:id="rId5"/>
     <sheet name="regulation" sheetId="11" r:id="rId6"/>
+    <sheet name="molecule SMILES" sheetId="16" r:id="rId7"/>
+    <sheet name="enzyme EC" sheetId="17" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3580" uniqueCount="1676">
   <si>
     <t>Pathway</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3711,13 +3713,2089 @@
   <si>
     <t>multiple enzeme</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>SMILES</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>1,3-bisphosphoglycerate</t>
+  </si>
+  <si>
+    <t>C([C@H](C(=O)OP(=O)(O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/439191</t>
+  </si>
+  <si>
+    <t>2-phosphoglycerate</t>
+  </si>
+  <si>
+    <t>C(C(C(=O)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/59</t>
+  </si>
+  <si>
+    <t>3-phosphoglycerate</t>
+  </si>
+  <si>
+    <t>C(C(C(=O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/724</t>
+  </si>
+  <si>
+    <t>6-phosphogluconate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H]([C@H](C(=O)O)O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/91493</t>
+  </si>
+  <si>
+    <t>6-phosphogluconolactone</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(=O)O1)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/439452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phosphogluconolactone </t>
+  </si>
+  <si>
+    <t>7,8-dihydrofolate</t>
+  </si>
+  <si>
+    <t>C1C(=NC2=C(N1)N=C(NC2=O)N)CNC3=CC=C(C=C3)C(=O)N[C@@H](CCC(=O)[O-])C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398603</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)OP(=O)(O)O)O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6022</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)O)O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6083</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5957</t>
+  </si>
+  <si>
+    <t>CDP</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)N=C1N)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6132</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>C(=O)=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/280</t>
+  </si>
+  <si>
+    <t>CTP</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)N=C1N)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6176</t>
+  </si>
+  <si>
+    <t>CoA</t>
+  </si>
+  <si>
+    <t>CC(C)(COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)[C@H](C(=O)NCCC(=O)NCCS)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/87642</t>
+  </si>
+  <si>
+    <t>CoA-SH</t>
+  </si>
+  <si>
+    <t>C[C@H](CC(=O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/92135</t>
+  </si>
+  <si>
+    <t>D-methylmalonyl-CoA</t>
+  </si>
+  <si>
+    <t>C[C@@H](C(=O)O)C(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/11966111</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>CC1=CC2=C(C=C1C)N(C3=NC(=O)NC(=O)C3=N2)C[C@@H]([C@@H]([C@@H](COP(=O)(O)OP(=O)(O)OC[C@@H]4[C@H]([C@H]([C@@H](O4)N5C=NC6=C(N=CN=C65)N)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/643975</t>
+  </si>
+  <si>
+    <t>FADH2</t>
+  </si>
+  <si>
+    <t>CC1=CC2=C(C=C1C)N(C3=C(N2)C(=O)NC(=O)N3)C[C@@H]([C@@H]([C@@H](COP(=O)(O)OP(=O)(O)OC[C@@H]4[C@H]([C@H]([C@@H](O4)N5C=NC6=C(N=CN=C65)N)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/446013</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)OP(=O)(O)O)O)O)N=C(NC2=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398619</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)O)O)O)N=C(NC2=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398631</t>
+  </si>
+  <si>
+    <t>GTP</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O)O)N=C(NC2=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398633</t>
+  </si>
+  <si>
+    <t>H+</t>
+  </si>
+  <si>
+    <t>[H+]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1038</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/962</t>
+  </si>
+  <si>
+    <t>H2O2</t>
+  </si>
+  <si>
+    <t>OO</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/784</t>
+  </si>
+  <si>
+    <t>HCO3-</t>
+  </si>
+  <si>
+    <t>C(=O)(O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/769</t>
+  </si>
+  <si>
+    <t>HMG-CoA</t>
+  </si>
+  <si>
+    <t>C[C@](CC(=O)O)(CC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/445127</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(C(=O)N1)N=CN2[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398640</t>
+  </si>
+  <si>
+    <t>L-malate</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)[O-])O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5459792</t>
+  </si>
+  <si>
+    <t>L-methylmalonyl-CoA</t>
+  </si>
+  <si>
+    <t>C[C@H](C(=O)O)C(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/449534</t>
+  </si>
+  <si>
+    <t>Linoleoyl-CoA</t>
+  </si>
+  <si>
+    <t>CCCCC/C=C\C/C=C\CCCCCCCC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5497112</t>
+  </si>
+  <si>
+    <t>N-carbamoylaspartate</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)NC(=O)N)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/93072</t>
+  </si>
+  <si>
+    <t>N10-formyltetrahydrofolate</t>
+  </si>
+  <si>
+    <t>C1C(NC2=C(N1)N=C(NC2=O)N)CN(C=O)C3=CC=C(C=C3)C(=O)N[C@@H](CCC(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135450591</t>
+  </si>
+  <si>
+    <t>NAD+</t>
+  </si>
+  <si>
+    <t>C1=CC(=C[N+](=C1)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)([O-])OP(=O)(O)OC[C@@H]3[C@H]([C@H]([C@@H](O3)N4C=NC5=C(N=CN=C54)N)O)O)O)O)C(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5892</t>
+  </si>
+  <si>
+    <t>NADH</t>
+  </si>
+  <si>
+    <t>C1C=CN(C=C1C(=O)N)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)OC[C@@H]3[C@H]([C@H]([C@@H](O3)N4C=NC5=C(N=CN=C54)N)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/439153</t>
+  </si>
+  <si>
+    <t>NADP+</t>
+  </si>
+  <si>
+    <t>C1=CC(=C[N+](=C1)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)([O-])OP(=O)(O)OC[C@@H]3[C@H]([C@H]([C@@H](O3)N4C=NC5=C(N=CN=C54)N)OP(=O)(O)O)O)O)O)C(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5885</t>
+  </si>
+  <si>
+    <t>NADPH</t>
+  </si>
+  <si>
+    <t>C1C=CN(C=C1C(=O)N)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)OC[C@@H]3[C@H]([C@H]([C@@H](O3)N4C=NC5=C(N=CN=C54)N)OP(=O)(O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5884</t>
+  </si>
+  <si>
+    <t>NDP</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=CC=C(C2=C1)CCC(=O)[O-])CCC(=O)[O-].[Na+].[Na+]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/2762669</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/222</t>
+  </si>
+  <si>
+    <t>NH4+</t>
+  </si>
+  <si>
+    <t>[NH4+]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/223</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/977</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>C=C(C(=O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1005</t>
+  </si>
+  <si>
+    <t>PRPP</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@H]([C@H](O1)OP(=O)(O)OP(=O)(O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/7339</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)NC1=O)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6031</t>
+  </si>
+  <si>
+    <t>UDP-glucose</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)NC1=O)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)O[C@@H]3[C@@H]([C@H]([C@@H]([C@H](O3)CO)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/8629</t>
+  </si>
+  <si>
+    <t>UMP</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)NC1=O)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6030</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)NC1=O)[C@H]2[C@@H]([C@@H]([C@H](O2)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6133</t>
+  </si>
+  <si>
+    <t>XMP</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1[C@H]3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)O)O)O)NC(=O)NC2=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/73323</t>
+  </si>
+  <si>
+    <t>acetoacetate</t>
+  </si>
+  <si>
+    <t>CC(=O)CC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6971017</t>
+  </si>
+  <si>
+    <t>acetoacetyl-CoA</t>
+  </si>
+  <si>
+    <t>CC(=O)CC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/92153</t>
+  </si>
+  <si>
+    <t>acetone</t>
+  </si>
+  <si>
+    <t>CC(=O)C</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/180</t>
+  </si>
+  <si>
+    <t>CC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/444493</t>
+  </si>
+  <si>
+    <t>adenosine</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)[C@H]3[C@@H]([C@@H]([C@H](O3)CO)O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/60961</t>
+  </si>
+  <si>
+    <t>adenylosuccinate</t>
+  </si>
+  <si>
+    <t>C1=NC(=C2C(=N1)N(C=N2)C3[C@@H]([C@@H]([C@H](O3)COP(=O)(O)OC(=O)CCC(=O)O)O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/121897</t>
+  </si>
+  <si>
+    <t>alanine</t>
+  </si>
+  <si>
+    <t>C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5950</t>
+  </si>
+  <si>
+    <t>allantoate</t>
+  </si>
+  <si>
+    <t>C(C(=O)[O-])(NC(=O)N)NC(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5287444</t>
+  </si>
+  <si>
+    <t>allantoin</t>
+  </si>
+  <si>
+    <t>C1(C(=O)NC(=O)N1)NC(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/204</t>
+  </si>
+  <si>
+    <t>alpha-ketoglutarate</t>
+  </si>
+  <si>
+    <t>C(CC(=O)[O-])C(=O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/164533</t>
+  </si>
+  <si>
+    <t>arginine</t>
+  </si>
+  <si>
+    <t>C(C[C@@H](C(=O)O)N)CN=C(N)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6322</t>
+  </si>
+  <si>
+    <t>argininosuccinate</t>
+  </si>
+  <si>
+    <t>C(CC(C(=O)O)N)CN=C(N)NC(CC(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/828</t>
+  </si>
+  <si>
+    <t>asparagine</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)N)C(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6267</t>
+  </si>
+  <si>
+    <t>aspartate</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)N)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5960</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>EC 2.6.1.19</t>
+  </si>
+  <si>
+    <t>glutamine synthetase</t>
+  </si>
+  <si>
+    <t>glutaminase</t>
+  </si>
+  <si>
+    <t>EC 4.3.3.6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q03144/entry</t>
+  </si>
+  <si>
+    <t>EC 2.6.1.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P13191/entry</t>
+  </si>
+  <si>
+    <t>aspartate aminotransferase</t>
+  </si>
+  <si>
+    <t>EC 2.6.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q95VP1/entry</t>
+  </si>
+  <si>
+    <t>EC 1.4.1.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P50735/entry</t>
+  </si>
+  <si>
+    <t>EC 6.3.4.16</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q3S2E9/entry</t>
+  </si>
+  <si>
+    <t>EC 2.1.3.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q936V7/entry</t>
+  </si>
+  <si>
+    <t>EC 6.3.4.5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P14568/entry</t>
+  </si>
+  <si>
+    <t>EC 4.3.2.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/B8LIT8/entry</t>
+  </si>
+  <si>
+    <t>EC 3.5.3.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P39138/entry</t>
+  </si>
+  <si>
+    <t>branched-chain aminotransferase</t>
+  </si>
+  <si>
+    <t>EC 2.6.1.42</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9R170/entry</t>
+  </si>
+  <si>
+    <t>branched-chain α-keto acid dehydrogenase complex</t>
+  </si>
+  <si>
+    <t>EC 1.2.4.4</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9UMB3/entry</t>
+  </si>
+  <si>
+    <t>adenylosuccinate synthetase</t>
+  </si>
+  <si>
+    <t>EC 6.3.4.4</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9U8D3/entry</t>
+  </si>
+  <si>
+    <t>IMP dehydrogenase</t>
+  </si>
+  <si>
+    <t>carbamoyl phosphate synthetase II</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/O15829/entry</t>
+  </si>
+  <si>
+    <t>ATCase</t>
+  </si>
+  <si>
+    <t>UniProt:P08955</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P08955/entry</t>
+  </si>
+  <si>
+    <t>kinases</t>
+  </si>
+  <si>
+    <t>EC 2.7.10.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P35968/entry</t>
+  </si>
+  <si>
+    <t>ribonucleotide reductase</t>
+  </si>
+  <si>
+    <t>EC 1.1.98.6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P07071/entry</t>
+  </si>
+  <si>
+    <t>nucleoside diphosphate kinase</t>
+  </si>
+  <si>
+    <t>deaminase</t>
+  </si>
+  <si>
+    <t>EC 3.5.4.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P0DUH5/entry</t>
+  </si>
+  <si>
+    <t>dUTPase</t>
+  </si>
+  <si>
+    <t>EC 3.6.1.23</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A8S5RH02/entry</t>
+  </si>
+  <si>
+    <t>thymidylate synthase</t>
+  </si>
+  <si>
+    <t>EC 2.1.1.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q58167/entry</t>
+  </si>
+  <si>
+    <t>dihydrofolate reductase</t>
+  </si>
+  <si>
+    <t>EC 1.5.1.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P95524/entry</t>
+  </si>
+  <si>
+    <t>serine hydroxymethyltransferase</t>
+  </si>
+  <si>
+    <t>EC 2.1.2.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9UWT5/entry</t>
+  </si>
+  <si>
+    <t>5'-nucleotidase</t>
+  </si>
+  <si>
+    <t>EC 3.1.3.5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q2LE75/entry</t>
+  </si>
+  <si>
+    <t>nucleosidase</t>
+  </si>
+  <si>
+    <t>EC 3.2.2.30</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9ZMY2/entry</t>
+  </si>
+  <si>
+    <t>guanine deaminase</t>
+  </si>
+  <si>
+    <t>EC 3.5.4.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A8B6X6P4/entry</t>
+  </si>
+  <si>
+    <t>adenosine deaminase</t>
+  </si>
+  <si>
+    <t>xanthine oxidase</t>
+  </si>
+  <si>
+    <t>UniProt:A0A7G1GET8</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A7G1GET8/entry</t>
+  </si>
+  <si>
+    <t>urate oxidase</t>
+  </si>
+  <si>
+    <t>UniProt:O32141</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/O32141/entry</t>
+  </si>
+  <si>
+    <t>allantoinase</t>
+  </si>
+  <si>
+    <t>EC 3.5.2.5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9S8P7/entry</t>
+  </si>
+  <si>
+    <t>allantoicase</t>
+  </si>
+  <si>
+    <t>UniProt:Q8MVS1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q8MVS1/entry</t>
+  </si>
+  <si>
+    <t>urease</t>
+  </si>
+  <si>
+    <t>dihydrouracil dehydrogenase</t>
+  </si>
+  <si>
+    <t>UniProt:A0A8D0GSW7</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A8D0GSW7/entry</t>
+  </si>
+  <si>
+    <t>dihydropyrimidinase</t>
+  </si>
+  <si>
+    <t>EC 3.5.2.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q14117/entry</t>
+  </si>
+  <si>
+    <t>EC 2.7.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q969A8/entry</t>
+  </si>
+  <si>
+    <t>EC 5.3.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/C8CJY7/entry</t>
+  </si>
+  <si>
+    <t>EC 1.2.1.12</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9N2D5/entry</t>
+  </si>
+  <si>
+    <t>EC 2.7.2.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P14828/entry</t>
+  </si>
+  <si>
+    <t>EC 5.4.2.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/D9Q2G6/entry</t>
+  </si>
+  <si>
+    <t>EC 2.7.1.40</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A2U9I6M5/entry</t>
+  </si>
+  <si>
+    <t>EC 2.3.3.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P45858/entry</t>
+  </si>
+  <si>
+    <t>EC 4.2.1.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P09339/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.42</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A075H019/entry</t>
+  </si>
+  <si>
+    <t>EC 6.2.1.5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/B3FHP0/entry</t>
+  </si>
+  <si>
+    <t>EC 4.2.1.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P10173/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.37</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q5XX75/entry</t>
+  </si>
+  <si>
+    <t>EC 6.4.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9HES8/entry</t>
+  </si>
+  <si>
+    <t>EC 3.1.3.9</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/E3VWM9/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.49</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/B7P028/entry</t>
+  </si>
+  <si>
+    <t>lactonase</t>
+  </si>
+  <si>
+    <t>EC 3.1.1.81</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A5JJ58/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.44</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q6TUM2/entry</t>
+  </si>
+  <si>
+    <t>UniProt:Q6RY01</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q6RY01/entry</t>
+  </si>
+  <si>
+    <t>EC 2.4.1.11</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A286SDK9/entry</t>
+  </si>
+  <si>
+    <t>glycogen phosphorylase</t>
+  </si>
+  <si>
+    <t>EC 2.4.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A286SDL8/entry</t>
+  </si>
+  <si>
+    <t>3-phosphoglycerate kinase</t>
+  </si>
+  <si>
+    <t>glyceraldehyde 3-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>EC 1.2.1.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/D7UNZ7/entry</t>
+  </si>
+  <si>
+    <t>phosphoribulokinase</t>
+  </si>
+  <si>
+    <t>EC 2.7.1.19</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P26302/entry</t>
+  </si>
+  <si>
+    <t>isocitrate lyase</t>
+  </si>
+  <si>
+    <t>EC 4.1.3.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q5FBD5/entry</t>
+  </si>
+  <si>
+    <t>malate synthase</t>
+  </si>
+  <si>
+    <t>EC 2.3.3.9</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q937W7/entry</t>
+  </si>
+  <si>
+    <t>glycerol kinase</t>
+  </si>
+  <si>
+    <t>glycerol 3-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.8</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A3Q8WI14/entry</t>
+  </si>
+  <si>
+    <t>triose phosphate isomerase</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P48497/entry</t>
+  </si>
+  <si>
+    <t>fatty acyl-CoA synthetase</t>
+  </si>
+  <si>
+    <t>UniProt:Q96337</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q96337/entry</t>
+  </si>
+  <si>
+    <t>EC 1.3.99.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P9WQG3/entry</t>
+  </si>
+  <si>
+    <t>EC 4.2.1.17</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P76082/entry</t>
+  </si>
+  <si>
+    <t>UniProt:Q93FC5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q93FC5/entry</t>
+  </si>
+  <si>
+    <t>UniProt:G7QYD1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/G7QYD1/entry</t>
+  </si>
+  <si>
+    <t>delta3, delta2-enoyl-CoA isomerase</t>
+  </si>
+  <si>
+    <t>EC 5.3.3.8</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q64592/entry</t>
+  </si>
+  <si>
+    <t>2,4-dienoyl-CoA reductase</t>
+  </si>
+  <si>
+    <t>UniProt:C5MQH0</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/C5MQH0/entry</t>
+  </si>
+  <si>
+    <t>propionyl-CoA carboxylase</t>
+  </si>
+  <si>
+    <t>EC 6.4.1.3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P81185/entry</t>
+  </si>
+  <si>
+    <t>methylmalonyl-CoA mutase</t>
+  </si>
+  <si>
+    <t>EC 5.4.99.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P11653/entry</t>
+  </si>
+  <si>
+    <t>thiolase</t>
+  </si>
+  <si>
+    <t>EC 2.3.1.174</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P0C7L2/entry</t>
+  </si>
+  <si>
+    <t>HMG-CoA synthase</t>
+  </si>
+  <si>
+    <t>HMG-CoA lyase</t>
+  </si>
+  <si>
+    <t>EC 4.1.3.4</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A484Q213/entry</t>
+  </si>
+  <si>
+    <t>acetoacetate decarboxylase</t>
+  </si>
+  <si>
+    <t>UniProt:A0A6J7GK34</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A6J7GK34/entry</t>
+  </si>
+  <si>
+    <t>D-beta-hydroxybutyrate dehydrogenase</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.30</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9XDL3/entry</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>citrate lyase</t>
+  </si>
+  <si>
+    <t>EC 6.2.1.22</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P45410/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.375</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q60176/entry</t>
+  </si>
+  <si>
+    <t>UniProt:Q3LR75</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q3LR75/entry</t>
+  </si>
+  <si>
+    <t>acyl transferase</t>
+  </si>
+  <si>
+    <t>EC 2.3.1.84</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/E9P8C9/entry</t>
+  </si>
+  <si>
+    <t>HMG-CoA reductase</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.34</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9SWQ3/entry</t>
+  </si>
+  <si>
+    <t>desmolase</t>
+  </si>
+  <si>
+    <t>UniProt:Q6LCX9</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q6LCX9/entry</t>
+  </si>
+  <si>
+    <t>5-phospho-β-D-ribosylamine</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@H](C(O1)N)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/3082052</t>
+  </si>
+  <si>
+    <t>H4 folate</t>
+  </si>
+  <si>
+    <t>C1C(NC2=C(N1)N=C(NC2=O)N)CNC3=CC=C(C=C3)C(=O)N[C@@H](CCC(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135444742</t>
+  </si>
+  <si>
+    <t>Linoleate 18:2 (delta9, 12)</t>
+  </si>
+  <si>
+    <t>CCCCC/C=C\C/C=C\CCCCCCCC(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5280450</t>
+  </si>
+  <si>
+    <t>PPi</t>
+  </si>
+  <si>
+    <t>[O-]P(=O)([O-])OP(=O)([O-])[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/644102</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>OP(=O)(O)O  </t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1004</t>
+  </si>
+  <si>
+    <t>alpha-linolenate 18:3 (delta9, 12, 15)</t>
+  </si>
+  <si>
+    <t>CC/C=C\C/C=C\C/C=C\CCCCCCCC(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5280934</t>
+  </si>
+  <si>
+    <t>carbamoyl phosphate</t>
+  </si>
+  <si>
+    <t>C(=O)(N)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/278</t>
+  </si>
+  <si>
+    <t>carnitine</t>
+  </si>
+  <si>
+    <t>C[N+](C)(C)CC(CC(=O)[O-])O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/288</t>
+  </si>
+  <si>
+    <t>cholesterol</t>
+  </si>
+  <si>
+    <t>C[C@H](CCCC(C)C)[C@H]1CC[C@@H]2[C@@]1(CC[C@H]3[C@H]2CC=C4[C@@]3(CC[C@@H](C4)O)C)C</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5997</t>
+  </si>
+  <si>
+    <t>C(C(=O)[O-])C(CC(=O)[O-])(C(=O)[O-])O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/31348</t>
+  </si>
+  <si>
+    <t>citrulline</t>
+  </si>
+  <si>
+    <t>C(C[C@@H](C(=O)O)N)CNC(=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/9750</t>
+  </si>
+  <si>
+    <t>cysteine</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)N)S</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5862</t>
+  </si>
+  <si>
+    <t>cytidine</t>
+  </si>
+  <si>
+    <t>C1=CN(C(=O)N=C1N)[C@H]2[C@@H]([C@@H]([C@H](O2)CO)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6175</t>
+  </si>
+  <si>
+    <t>dCDP</t>
+  </si>
+  <si>
+    <t>C1[C@@H]([C@H](O[C@H]1N2C=CC(=NC2=O)N)COP(=O)(O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/150855</t>
+  </si>
+  <si>
+    <t>dCTP</t>
+  </si>
+  <si>
+    <t>C1[C@@H]([C@H](O[C@H]1N2C=CC(=NC2=O)N)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/65091</t>
+  </si>
+  <si>
+    <t>dTMP</t>
+  </si>
+  <si>
+    <t>CC1=CN(C(=O)NC1=O)[C@H]2C[C@@H]([C@H](O2)COP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/9700</t>
+  </si>
+  <si>
+    <t>dUDP</t>
+  </si>
+  <si>
+    <t>C1[C@@H]([C@H](O[C@H]1N2C=CC(=O)NC2=O)COP(=O)(O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/145729</t>
+  </si>
+  <si>
+    <t>dUMP</t>
+  </si>
+  <si>
+    <t>C1[C@@H]([C@H](O[C@H]1N2C=CC(=O)NC2=O)COP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/65063</t>
+  </si>
+  <si>
+    <t>dUTP</t>
+  </si>
+  <si>
+    <t>C1[C@@H]([C@H](O[C@H]1N2C=CC(=O)NC2=O)COP(=O)(O)OP(=O)(O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/65070</t>
+  </si>
+  <si>
+    <t>dihydrothymine</t>
+  </si>
+  <si>
+    <t>CC1CNC(=O)NC1=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/93556</t>
+  </si>
+  <si>
+    <t>dihydroxyacetone phosphate</t>
+  </si>
+  <si>
+    <t>C(C(=O)COP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/668</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@@H](O1)COP(=O)(O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/445555</t>
+  </si>
+  <si>
+    <t>fructose 6-phosphate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@@H](C(=O)CO)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/69507</t>
+  </si>
+  <si>
+    <t>fumarate</t>
+  </si>
+  <si>
+    <t>C(=C/C(=O)[O-])\C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5460307</t>
+  </si>
+  <si>
+    <t>glucose</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(O1)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5793</t>
+  </si>
+  <si>
+    <t>glucose 1-phosphate</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(O1)OP(=O)(O)O)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/439165</t>
+  </si>
+  <si>
+    <t>C([C@@H]1[C@H]([C@@H]([C@H](C(O1)O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5958</t>
+  </si>
+  <si>
+    <t>glutamate</t>
+  </si>
+  <si>
+    <t>C(CC(=O)O)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/33032</t>
+  </si>
+  <si>
+    <t>glutamine</t>
+  </si>
+  <si>
+    <t>C(CC(=O)N)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5961</t>
+  </si>
+  <si>
+    <t>C(C(C=O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/729</t>
+  </si>
+  <si>
+    <t>glycerol</t>
+  </si>
+  <si>
+    <t>C(C(CO)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/753</t>
+  </si>
+  <si>
+    <t>glycerol 3-phosphate</t>
+  </si>
+  <si>
+    <t>C(C(COP(=O)(O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/754</t>
+  </si>
+  <si>
+    <t>glycine</t>
+  </si>
+  <si>
+    <t>C(C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/750</t>
+  </si>
+  <si>
+    <t>glyoxylate</t>
+  </si>
+  <si>
+    <t>C(=O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/760</t>
+  </si>
+  <si>
+    <t>guanine</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1)C(=O)NC(=N2)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398634</t>
+  </si>
+  <si>
+    <t>guanosine</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1[C@H]3[C@@H]([C@@H]([C@H](O3)CO)O)O)N=C(NC2=O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398635</t>
+  </si>
+  <si>
+    <t>histidine</t>
+  </si>
+  <si>
+    <t>C1=C(NC=N1)C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6274</t>
+  </si>
+  <si>
+    <t>hypoxanthine</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1)C(=O)NC=N2</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398638</t>
+  </si>
+  <si>
+    <t>inosine</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(C(=O)N1)N=CN2[C@H]3[C@@H]([C@@H]([C@H](O3)CO)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/135398641</t>
+  </si>
+  <si>
+    <t>isocaproaldehyde</t>
+  </si>
+  <si>
+    <t>CC(C)CCC=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/129</t>
+  </si>
+  <si>
+    <t>isocitrate</t>
+  </si>
+  <si>
+    <t>C(C(C(C(=O)O)O)C(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1198</t>
+  </si>
+  <si>
+    <t>isoleucine</t>
+  </si>
+  <si>
+    <t>CC[C@H](C)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lactate </t>
+  </si>
+  <si>
+    <t>CC(C(=O)[O-])O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/91435</t>
+  </si>
+  <si>
+    <t>leucine</t>
+  </si>
+  <si>
+    <t>CC(C)C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6106</t>
+  </si>
+  <si>
+    <t>lysine</t>
+  </si>
+  <si>
+    <t>C(CCN)C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5962</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>C(C(C(=O)[O-])O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/160434</t>
+  </si>
+  <si>
+    <t>malonyl-CoA</t>
+  </si>
+  <si>
+    <t>CC(C)(COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)[C@H](C(=O)NCCC(=O)NCCSC(=O)CC(=O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/644066</t>
+  </si>
+  <si>
+    <t>methionine</t>
+  </si>
+  <si>
+    <t>CSCC[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6137</t>
+  </si>
+  <si>
+    <t>mevalonate</t>
+  </si>
+  <si>
+    <t>CC(CCO)(CC(=O)[O-])O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/4478250</t>
+  </si>
+  <si>
+    <t>nicotinate</t>
+  </si>
+  <si>
+    <t>C1=CC(=CN=C1)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/937</t>
+  </si>
+  <si>
+    <t>oleate 18:1 (delta9)</t>
+  </si>
+  <si>
+    <t>CCCCCCCC/C=C\CCCCCCCC(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/445639</t>
+  </si>
+  <si>
+    <t>oleoyl-CoA</t>
+  </si>
+  <si>
+    <t>CCCCCCCC/C=C\CCCCCCCC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5497111</t>
+  </si>
+  <si>
+    <t>ornithine</t>
+  </si>
+  <si>
+    <t>C(C[C@@H](C(=O)O)N)CN</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6262</t>
+  </si>
+  <si>
+    <t>orotate</t>
+  </si>
+  <si>
+    <t>C1=C(NC(=O)NC1=O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1492348</t>
+  </si>
+  <si>
+    <t>C(C(=O)C(=O)O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/970</t>
+  </si>
+  <si>
+    <t>palmitate 16:0</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/504166</t>
+  </si>
+  <si>
+    <t>palmitoleate 16:1 (delta9)</t>
+  </si>
+  <si>
+    <t>CCCCCC/C=C\CCCCCCCC(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/445638</t>
+  </si>
+  <si>
+    <t>palmitoyl-CoA (C16)</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/644109</t>
+  </si>
+  <si>
+    <t>phenylacetate</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C=C1)CC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/4409936</t>
+  </si>
+  <si>
+    <t>phenylalanine</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C=C1)C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6140</t>
+  </si>
+  <si>
+    <t>phenylpyruvate</t>
+  </si>
+  <si>
+    <t>C1=CC=C(C=C1)CC(=O)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/997</t>
+  </si>
+  <si>
+    <t>phosphatidic acid</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCC(=O)OC[C@H](COP(=O)(O)O)OC(=O)CCCCCCCCCCCCCCC</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/446066</t>
+  </si>
+  <si>
+    <t>pregnenolone</t>
+  </si>
+  <si>
+    <t>CC(=O)[C@H]1CC[C@@H]2[C@@]1(CC[C@H]3[C@H]2CC=C4[C@@]3(CC[C@@H](C4)O)C)C</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/8955</t>
+  </si>
+  <si>
+    <t>proline</t>
+  </si>
+  <si>
+    <t>C1C[C@H](NC1)C(=O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/145742</t>
+  </si>
+  <si>
+    <t>propionyl-CoA</t>
+  </si>
+  <si>
+    <t>CCC(=O)SCCNC(=O)CCNC(=O)[C@@H](C(C)(C)COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/92753</t>
+  </si>
+  <si>
+    <t>pyruvate</t>
+  </si>
+  <si>
+    <t>CC(=O)C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/107735</t>
+  </si>
+  <si>
+    <t>ribose</t>
+  </si>
+  <si>
+    <t>C1[C@H]([C@H]([C@H](C(O1)O)O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/10975657</t>
+  </si>
+  <si>
+    <t>ribose 5-phosphate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H]([C@H](C=O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/77982</t>
+  </si>
+  <si>
+    <t>ribulose 1,5-bisphosphate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H](C(=O)COP(=O)(O)O)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/123658</t>
+  </si>
+  <si>
+    <t>ribulose 5-phosphate</t>
+  </si>
+  <si>
+    <t>C([C@H]([C@H](C(=O)CO)O)O)OP(=O)(O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/439184</t>
+  </si>
+  <si>
+    <t>serine</t>
+  </si>
+  <si>
+    <t>C([C@@H](C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/5951</t>
+  </si>
+  <si>
+    <t>stearate 18:0</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCCC(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/3033836</t>
+  </si>
+  <si>
+    <t>succinate</t>
+  </si>
+  <si>
+    <t>C(CC(=O)[O-])C(=O)[O-]</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/160419</t>
+  </si>
+  <si>
+    <t>succinyl-CoA</t>
+  </si>
+  <si>
+    <t>CC(C)(COP(=O)(O)OP(=O)(O)OC[C@@H]1[C@H]([C@H]([C@@H](O1)N2C=NC3=C(N=CN=C32)N)O)OP(=O)(O)O)[C@H](C(=O)NCCC(=O)NCCSC(=O)CCC(=O)O)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/92133</t>
+  </si>
+  <si>
+    <t>threonine</t>
+  </si>
+  <si>
+    <t>C[C@H]([C@@H](C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6288</t>
+  </si>
+  <si>
+    <t>thymine</t>
+  </si>
+  <si>
+    <t>CC1=CNC(=O)NC1=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1135</t>
+  </si>
+  <si>
+    <t>triacylglycerol</t>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCCCCCCCC(=O)OCC(COC(=O)CCCCCCCCCCCCCCCCC)OC(=O)CCCCCCCCCCCCCCCCC</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/11146</t>
+  </si>
+  <si>
+    <t>tryptophan</t>
+  </si>
+  <si>
+    <t>C1=CC=C2C(=C1)C(=CN2)C[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6305</t>
+  </si>
+  <si>
+    <t>tyrosine</t>
+  </si>
+  <si>
+    <t>C1=CC(=CC=C1C[C@@H](C(=O)O)N)O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6057</t>
+  </si>
+  <si>
+    <t>uracil</t>
+  </si>
+  <si>
+    <t>C1=CNC(=O)NC1=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1174</t>
+  </si>
+  <si>
+    <t>urea</t>
+  </si>
+  <si>
+    <t>C(=O)(N)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1176</t>
+  </si>
+  <si>
+    <t>uric acid</t>
+  </si>
+  <si>
+    <t>C12=C(NC(=O)N1)NC(=O)NC2=O</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1175</t>
+  </si>
+  <si>
+    <t>valine</t>
+  </si>
+  <si>
+    <t>CC(C)[C@@H](C(=O)O)N</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/6287</t>
+  </si>
+  <si>
+    <t>xanthine</t>
+  </si>
+  <si>
+    <t>C1=NC2=C(N1)C(=O)NC(=O)N2</t>
+  </si>
+  <si>
+    <t>https://pubchem.ncbi.nlm.nih.gov/compound/1188</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P50457/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A5K1G4Q8</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A5K1G4Q8/entry</t>
+  </si>
+  <si>
+    <t>glutamine-PRPP amidotransferase</t>
+  </si>
+  <si>
+    <t>EC 2.4.2.14</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0ABC9TXQ0/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A383CLN5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A383CLN5/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A7R9TT23</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A7R9TT23/entry</t>
+  </si>
+  <si>
+    <t>EC 3.5.4.4</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A2P2C5B8/entry</t>
+  </si>
+  <si>
+    <t>EC 3.5.1.5</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9ZAA2/entry</t>
+  </si>
+  <si>
+    <t>β-ureidopropinonase</t>
+  </si>
+  <si>
+    <t>EC 3.5.1.6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A1X1E9/entry</t>
+  </si>
+  <si>
+    <t>EC 5.3.1.9</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q9X1A5/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A382FER9</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A382FER9/entry</t>
+  </si>
+  <si>
+    <t>UniProt:T2IES6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/T2IES6/entry</t>
+  </si>
+  <si>
+    <t>UniProt:C3Y3R7</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/C3Y3R7/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A6J6LXB4</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A6J6LXB4/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A650CPT8</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A650CPT8/entry</t>
+  </si>
+  <si>
+    <t>EC 4.1.1.49</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A075GVI4/entry</t>
+  </si>
+  <si>
+    <t>UniProt:A0A1T4RDE3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A1T4RDE3/entry</t>
+  </si>
+  <si>
+    <t>EC 3.1.3.11</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0ABC8EAI7/entry</t>
+  </si>
+  <si>
+    <t>ribose 5-phosphate isomerase; epimerase</t>
+  </si>
+  <si>
+    <t>EC 5.3.1.6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q8RU73/entry</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A382IAB0/entry</t>
+  </si>
+  <si>
+    <t>EC 2.7.1.30</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A382MGP1/entry</t>
+  </si>
+  <si>
+    <t>carnitine acyltransferase I</t>
+  </si>
+  <si>
+    <t>UniProt:A0A336U2K3</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A336U2K3/entry</t>
+  </si>
+  <si>
+    <t>EC 2.3.3.10</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A5M6C4H8/entry</t>
+  </si>
+  <si>
+    <t>EC 6.4.1.2</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/Q38970/entry</t>
+  </si>
+  <si>
+    <t>EC 1.2.-.-</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P9WIB7/entry</t>
+  </si>
+  <si>
+    <t>EC 1.1.1.1</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/A0A7L4WB00/entry</t>
+  </si>
+  <si>
+    <t>phosphdatidic acid phosphatase</t>
+  </si>
+  <si>
+    <t>UniProt:X5I2G6</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/X5I2G6/entry</t>
+  </si>
+  <si>
+    <t>mixed-function oxidase</t>
+  </si>
+  <si>
+    <t>EC 1.14.14.46</t>
+  </si>
+  <si>
+    <t>https://www.uniprot.org/uniprotkb/P53554/entry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3764,6 +5842,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3773,7 +5867,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3781,13 +5875,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3806,9 +5931,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4122,8 +6263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7860E3-A355-D34C-A5F3-A08B9519F67D}">
   <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="39" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:M20"/>
+    <sheetView topLeftCell="J8" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17782,7 +19923,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -17847,4 +19988,3438 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C28FE6-12DC-304D-93DC-5CB9850FE05D}">
+  <dimension ref="A1:C245"/>
+  <sheetViews>
+    <sheetView topLeftCell="A173" zoomScale="50" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="198.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="10" t="s">
+        <v>987</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>991</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="10" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>997</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16">
+      <c r="A7" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" s="10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16">
+      <c r="A9" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16">
+      <c r="A10" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16">
+      <c r="A11" s="10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16">
+      <c r="A12" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16">
+      <c r="A13" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16">
+      <c r="A14" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16">
+      <c r="A15" s="10" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16">
+      <c r="A16" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16">
+      <c r="A17" s="10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16">
+      <c r="A18" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16">
+      <c r="A19" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16">
+      <c r="A20" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16">
+      <c r="A21" s="10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16">
+      <c r="A22" s="10" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16">
+      <c r="A23" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16">
+      <c r="A24" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16">
+      <c r="A25" s="10" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16">
+      <c r="A26" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16">
+      <c r="A27" s="10" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16">
+      <c r="A28" s="10" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16">
+      <c r="A29" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16">
+      <c r="A30" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16">
+      <c r="A31" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16">
+      <c r="A32" s="10" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16">
+      <c r="A33" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16">
+      <c r="A34" s="10" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16">
+      <c r="A35" s="10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16">
+      <c r="A36" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16">
+      <c r="A37" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16">
+      <c r="A38" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16">
+      <c r="A39" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16">
+      <c r="A40" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16">
+      <c r="A41" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16">
+      <c r="A42" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16">
+      <c r="A43" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16">
+      <c r="A44" s="10" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16">
+      <c r="A45" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16">
+      <c r="A46" s="10" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16">
+      <c r="A47" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16">
+      <c r="A48" s="10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16">
+      <c r="A49" s="10" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16">
+      <c r="A50" s="10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16">
+      <c r="A51" s="10" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16">
+      <c r="A52" s="10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16">
+      <c r="A53" s="10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16">
+      <c r="A54" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16">
+      <c r="A55" s="10" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16">
+      <c r="A56" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16">
+      <c r="A57" s="10" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16">
+      <c r="A58" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16">
+      <c r="A59" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16">
+      <c r="A60" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16">
+      <c r="A61" s="10" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16">
+      <c r="A62" s="10" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16">
+      <c r="A63" s="10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16">
+      <c r="A64" s="10" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16">
+      <c r="A65" s="10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16">
+      <c r="A66" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16">
+      <c r="A67" s="10" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16">
+      <c r="A68" s="10" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16">
+      <c r="A69" s="10" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16">
+      <c r="A70" s="10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16">
+      <c r="A71" s="10" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16">
+      <c r="A72" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16">
+      <c r="A73" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16">
+      <c r="A74" s="10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16">
+      <c r="A75" s="10" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16">
+      <c r="A76" s="10" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16">
+      <c r="A77" s="10" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16">
+      <c r="A78" s="10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16">
+      <c r="A79" s="10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16">
+      <c r="A80" s="10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16">
+      <c r="A81" s="10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16">
+      <c r="A82" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16">
+      <c r="A83" s="10" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16">
+      <c r="A84" s="10" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16">
+      <c r="A85" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16">
+      <c r="A86" s="10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16">
+      <c r="A87" s="10" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16">
+      <c r="A88" s="10" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16">
+      <c r="A89" s="10" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16">
+      <c r="A90" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16">
+      <c r="A91" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16">
+      <c r="A92" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16">
+      <c r="A93" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16">
+      <c r="A94" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16">
+      <c r="A95" s="10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16">
+      <c r="A96" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16">
+      <c r="A97" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16">
+      <c r="A98" s="10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16">
+      <c r="A99" s="10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16">
+      <c r="A100" s="10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16">
+      <c r="A101" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16">
+      <c r="A102" s="10" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16">
+      <c r="A103" s="10" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16">
+      <c r="A104" s="10" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16">
+      <c r="A105" s="10" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16">
+      <c r="A106" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16">
+      <c r="A107" s="10" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16">
+      <c r="A108" s="10" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="16">
+      <c r="A109" s="10" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="16">
+      <c r="A110" s="10" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="16">
+      <c r="A111" s="10" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="16">
+      <c r="A112" s="10" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="16">
+      <c r="A113" s="10" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="16">
+      <c r="A114" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="16">
+      <c r="A115" s="10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="16">
+      <c r="A116" s="10" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="16">
+      <c r="A117" s="10" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="16">
+      <c r="A118" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="16">
+      <c r="A119" s="10" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="16">
+      <c r="A120" s="10" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="16">
+      <c r="A121" s="10" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="16">
+      <c r="A122" s="10" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="16">
+      <c r="A123" s="10" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="16">
+      <c r="A124" s="10" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="16">
+      <c r="A125" s="10" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16">
+      <c r="A126" s="10" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="16">
+      <c r="A127" s="10" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="16">
+      <c r="A128" s="10" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="16">
+      <c r="A129" s="10" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="16">
+      <c r="A130" s="10" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="16">
+      <c r="A131" s="10" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="16">
+      <c r="A132" s="10" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="16">
+      <c r="A133" s="10" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="16">
+      <c r="A134" s="10" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="16">
+      <c r="A135" s="10" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="16">
+      <c r="A136" s="10" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="16">
+      <c r="A137" s="10" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="16">
+      <c r="A138" s="10" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="16">
+      <c r="A139" s="10" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="16">
+      <c r="A140" s="10" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="16">
+      <c r="A141" s="10" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="16">
+      <c r="A142" s="10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="16">
+      <c r="A143" s="10" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16">
+      <c r="A144" s="10" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="16">
+      <c r="A145" s="10" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="16">
+      <c r="A146" s="10" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="16">
+      <c r="A147" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="16">
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+    </row>
+    <row r="149" spans="1:3" ht="16">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+    </row>
+    <row r="150" spans="1:3" ht="16">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+    </row>
+    <row r="151" spans="1:3" ht="16">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+    </row>
+    <row r="152" spans="1:3" ht="16">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+    </row>
+    <row r="153" spans="1:3" ht="16">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+    </row>
+    <row r="154" spans="1:3" ht="16">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+    </row>
+    <row r="155" spans="1:3" ht="16">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+    </row>
+    <row r="156" spans="1:3" ht="16">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+    </row>
+    <row r="157" spans="1:3" ht="16">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+    </row>
+    <row r="158" spans="1:3" ht="16">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+    </row>
+    <row r="159" spans="1:3" ht="16">
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+    </row>
+    <row r="160" spans="1:3" ht="16">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+    </row>
+    <row r="161" spans="1:3" ht="16">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+    </row>
+    <row r="162" spans="1:3" ht="16">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+    </row>
+    <row r="163" spans="1:3" ht="16">
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+    </row>
+    <row r="164" spans="1:3" ht="16">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+    </row>
+    <row r="165" spans="1:3" ht="16">
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+    </row>
+    <row r="166" spans="1:3" ht="16">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+    </row>
+    <row r="167" spans="1:3" ht="16">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+    </row>
+    <row r="168" spans="1:3" ht="16">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+    </row>
+    <row r="169" spans="1:3" ht="16">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+    </row>
+    <row r="170" spans="1:3" ht="16">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+    </row>
+    <row r="171" spans="1:3" ht="16">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+    </row>
+    <row r="172" spans="1:3" ht="16">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+    </row>
+    <row r="173" spans="1:3" ht="16">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+    </row>
+    <row r="174" spans="1:3" ht="16">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+    </row>
+    <row r="175" spans="1:3" ht="16">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+    </row>
+    <row r="176" spans="1:3" ht="16">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+    </row>
+    <row r="177" spans="1:3" ht="16">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+    </row>
+    <row r="178" spans="1:3" ht="16">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+    </row>
+    <row r="179" spans="1:3" ht="16">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+    </row>
+    <row r="180" spans="1:3" ht="16">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+    </row>
+    <row r="181" spans="1:3" ht="16">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+    </row>
+    <row r="182" spans="1:3" ht="16">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+    </row>
+    <row r="183" spans="1:3" ht="16">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+    </row>
+    <row r="184" spans="1:3" ht="16">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+    </row>
+    <row r="185" spans="1:3" ht="16">
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+    </row>
+    <row r="186" spans="1:3" ht="16">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+    </row>
+    <row r="187" spans="1:3" ht="16">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+    </row>
+    <row r="188" spans="1:3" ht="16">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+    </row>
+    <row r="189" spans="1:3" ht="16">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+    </row>
+    <row r="190" spans="1:3" ht="16">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+    </row>
+    <row r="191" spans="1:3" ht="16">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+    </row>
+    <row r="192" spans="1:3" ht="16">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+    </row>
+    <row r="193" spans="1:3" ht="16">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+    </row>
+    <row r="194" spans="1:3" ht="16">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+    </row>
+    <row r="195" spans="1:3" ht="16">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+    </row>
+    <row r="196" spans="1:3" ht="16">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+    </row>
+    <row r="197" spans="1:3" ht="16">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+    </row>
+    <row r="198" spans="1:3" ht="16">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+    </row>
+    <row r="199" spans="1:3" ht="16">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+    </row>
+    <row r="200" spans="1:3" ht="16">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+    </row>
+    <row r="201" spans="1:3" ht="16">
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+    </row>
+    <row r="202" spans="1:3" ht="16">
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+    </row>
+    <row r="203" spans="1:3" ht="16">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+    </row>
+    <row r="204" spans="1:3" ht="16">
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+    </row>
+    <row r="205" spans="1:3" ht="16">
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+    </row>
+    <row r="206" spans="1:3" ht="16">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+    </row>
+    <row r="207" spans="1:3" ht="16">
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+    </row>
+    <row r="208" spans="1:3" ht="16">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+    </row>
+    <row r="209" spans="1:3" ht="16">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+    </row>
+    <row r="210" spans="1:3" ht="16">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+    </row>
+    <row r="211" spans="1:3" ht="16">
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+    </row>
+    <row r="212" spans="1:3" ht="16">
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+    </row>
+    <row r="213" spans="1:3" ht="16">
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+    </row>
+    <row r="214" spans="1:3" ht="16">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+    </row>
+    <row r="215" spans="1:3" ht="16">
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+    </row>
+    <row r="216" spans="1:3" ht="16">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+    </row>
+    <row r="217" spans="1:3" ht="16">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+    </row>
+    <row r="218" spans="1:3" ht="16">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+    </row>
+    <row r="219" spans="1:3" ht="16">
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+    </row>
+    <row r="220" spans="1:3" ht="16">
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+    </row>
+    <row r="221" spans="1:3" ht="16">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+    </row>
+    <row r="222" spans="1:3" ht="16">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+    </row>
+    <row r="223" spans="1:3" ht="16">
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+    </row>
+    <row r="224" spans="1:3" ht="16">
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+    </row>
+    <row r="225" spans="1:3" ht="16">
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+    </row>
+    <row r="226" spans="1:3" ht="16">
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+    </row>
+    <row r="227" spans="1:3" ht="16">
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+    </row>
+    <row r="228" spans="1:3" ht="16">
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+    </row>
+    <row r="229" spans="1:3" ht="16">
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+    </row>
+    <row r="230" spans="1:3" ht="16">
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+    </row>
+    <row r="231" spans="1:3" ht="16">
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+    </row>
+    <row r="232" spans="1:3" ht="16">
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+    </row>
+    <row r="233" spans="1:3" ht="16">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+    </row>
+    <row r="234" spans="1:3" ht="16">
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+    </row>
+    <row r="235" spans="1:3" ht="16">
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10"/>
+    </row>
+    <row r="236" spans="1:3" ht="16">
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+    </row>
+    <row r="237" spans="1:3" ht="16">
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10"/>
+    </row>
+    <row r="238" spans="1:3" ht="16">
+      <c r="A238" s="10" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C238" s="10" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="16">
+      <c r="A239" s="10" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C239" s="10" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="16">
+      <c r="A240" s="10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C240" s="10" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="16">
+      <c r="A241" s="10" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="16">
+      <c r="A242" s="10" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="16">
+      <c r="A243" s="10" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="16">
+      <c r="A244" s="10" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="16">
+      <c r="A245" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C245" s="10" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" display="https://pubchem.ncbi.nlm.nih.gov/compound/59" xr:uid="{2E404D73-8723-1643-84F7-12231325D8FF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B33D5E25-92BA-3E4A-8368-0F67AEF6B697}">
+  <dimension ref="A1:C122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="50" workbookViewId="0">
+      <selection sqref="A1:C104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="51.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16">
+      <c r="A7" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16">
+      <c r="A9" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16">
+      <c r="A10" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16">
+      <c r="A11" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16">
+      <c r="A12" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16">
+      <c r="A13" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16">
+      <c r="A14" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16">
+      <c r="A15" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16">
+      <c r="A16" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16">
+      <c r="A17" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16">
+      <c r="A18" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16">
+      <c r="A19" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16">
+      <c r="A20" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16">
+      <c r="A21" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16">
+      <c r="A22" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16">
+      <c r="A23" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16">
+      <c r="A24" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16">
+      <c r="A25" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16">
+      <c r="A26" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16">
+      <c r="A27" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16">
+      <c r="A28" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16">
+      <c r="A29" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16">
+      <c r="A30" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16">
+      <c r="A31" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16">
+      <c r="A32" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16">
+      <c r="A33" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16">
+      <c r="A34" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16">
+      <c r="A35" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16">
+      <c r="A36" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16">
+      <c r="A37" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16">
+      <c r="A38" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16">
+      <c r="A39" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16">
+      <c r="A40" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16">
+      <c r="A41" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16">
+      <c r="A42" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16">
+      <c r="A43" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16">
+      <c r="A44" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16">
+      <c r="A45" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16">
+      <c r="A46" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16">
+      <c r="A47" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16">
+      <c r="A48" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16">
+      <c r="A49" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16">
+      <c r="A50" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16">
+      <c r="A51" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16">
+      <c r="A52" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16">
+      <c r="A53" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16">
+      <c r="A54" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16">
+      <c r="A55" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16">
+      <c r="A56" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16">
+      <c r="A57" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16">
+      <c r="A58" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16">
+      <c r="A59" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16">
+      <c r="A60" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16">
+      <c r="A61" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16">
+      <c r="A62" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16">
+      <c r="A63" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16">
+      <c r="A64" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16">
+      <c r="A65" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16">
+      <c r="A66" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16">
+      <c r="A67" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16">
+      <c r="A68" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16">
+      <c r="A69" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16">
+      <c r="A70" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="16">
+      <c r="A71" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16">
+      <c r="A72" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16">
+      <c r="A73" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16">
+      <c r="A74" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16">
+      <c r="A75" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16">
+      <c r="A76" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16">
+      <c r="A77" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16">
+      <c r="A78" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16">
+      <c r="A79" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16">
+      <c r="A80" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16">
+      <c r="A81" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16">
+      <c r="A82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16">
+      <c r="A83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16">
+      <c r="A84" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16">
+      <c r="A85" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16">
+      <c r="A86" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16">
+      <c r="A87" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16">
+      <c r="A88" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16">
+      <c r="A89" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16">
+      <c r="A90" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16">
+      <c r="A91" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16">
+      <c r="A92" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16">
+      <c r="A93" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16">
+      <c r="A94" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="16">
+      <c r="A95" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="16">
+      <c r="A96" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="16">
+      <c r="A97" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="16">
+      <c r="A98" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="16">
+      <c r="A99" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="16">
+      <c r="A100" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="16">
+      <c r="A101" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="16">
+      <c r="A102" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="16">
+      <c r="A103" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="16">
+      <c r="A104" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="16">
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+    </row>
+    <row r="106" spans="1:3" ht="16">
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="1:3" ht="16">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" spans="1:3" ht="16">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+    </row>
+    <row r="109" spans="1:3" ht="16">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+    </row>
+    <row r="110" spans="1:3" ht="16">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="1:3" ht="16">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:3" ht="16">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="1:3" ht="16">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" spans="1:3" ht="16">
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+    </row>
+    <row r="115" spans="1:3" ht="16">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="1:3" ht="16">
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="1:3" ht="16">
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="1:3" ht="16">
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:3" ht="16">
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:3" ht="16">
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:3" ht="16">
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="1:3" ht="16">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>